--- a/files/personfile.xlsx
+++ b/files/personfile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>*6366</t>
+  </si>
+  <si>
+    <t>Заяць Олег</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <dimension ref="B1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -546,7 +552,10 @@
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
